--- a/raw data/sorted/Belibor/istorijskiPregled belibor 2005.xls.xlsx
+++ b/raw data/sorted/Belibor/istorijskiPregled belibor 2005.xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mace\OneDrive - Zühlke Engineering AG\Documents\master-thesis-code\raw data\Belibor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zuhlke-my.sharepoint.com/personal/marija_celikovic_zuehlke_com/Documents/Documents/master-thesis-code/raw data/sorted/Belibor/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43965B5-8A2B-4B05-89F9-E8AF5382CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proper Data" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -624,9 +624,9 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1143,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC16058C-99C8-4E03-849A-F10B77866B2D}">
   <dimension ref="A1:D708"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -11074,8 +11074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A201" workbookViewId="0">
-      <selection sqref="A1:E237"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
